--- a/UKData/Documentation/ESPA_DELTAS_LOCATIONS.xlsx
+++ b/UKData/Documentation/ESPA_DELTAS_LOCATIONS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoqu/Desktop/ABM_Research/ABM_py/UKData/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EC31A6-BC56-3541-B7F7-1D21B90C2B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19160" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,8 +460,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,129 +685,129 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,6 +815,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -855,7 +869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,9 +901,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,6 +953,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1096,2554 +1146,2554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="A90" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="10" t="s">
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B6" s="21" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="23">
+      <c r="G6" s="8">
         <v>316</v>
       </c>
-      <c r="I6" s="23">
+      <c r="H6" s="8">
         <v>1587</v>
       </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23">
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>1587</v>
       </c>
-      <c r="L6" s="22">
+      <c r="K6" s="17">
         <v>430</v>
       </c>
-      <c r="M6" s="22">
+      <c r="L6" s="17">
         <v>10783853</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="23" t="s">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="23">
+      <c r="G7" s="8">
         <v>3042</v>
       </c>
-      <c r="I7" s="23">
+      <c r="H7" s="8">
         <v>13828</v>
       </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>13828</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="23" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23">
+      <c r="G8" s="8">
         <v>1176</v>
       </c>
-      <c r="I8" s="23">
+      <c r="H8" s="8">
         <v>5242</v>
       </c>
-      <c r="J8" s="23">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23">
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>5242</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="28">
+      <c r="G9" s="9">
         <v>4534</v>
       </c>
-      <c r="I9" s="28">
+      <c r="H9" s="9">
         <v>20657</v>
       </c>
-      <c r="J9" s="28">
-        <v>0</v>
-      </c>
-      <c r="K9" s="28">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <v>20657</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="2:13" ht="39" thickBot="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="29" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="30">
+      <c r="G10" s="10">
         <v>398</v>
       </c>
-      <c r="I10" s="30">
+      <c r="H10" s="10">
         <v>2060</v>
       </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <v>2060</v>
       </c>
-      <c r="L10" s="31">
+      <c r="K10" s="14">
         <v>786</v>
       </c>
-      <c r="M10" s="22">
+      <c r="L10" s="17">
         <v>10091887</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B11" s="24"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="30">
+      <c r="G11" s="10">
         <v>1532</v>
       </c>
-      <c r="I11" s="30">
+      <c r="H11" s="10">
         <v>7225</v>
       </c>
-      <c r="J11" s="30">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>7225</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23" t="s">
+      <c r="K11" s="15"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="30">
+      <c r="G12" s="10">
         <v>1357</v>
       </c>
-      <c r="I12" s="30">
+      <c r="H12" s="10">
         <v>6403</v>
       </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30">
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>6403</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="28" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="28">
+      <c r="G13" s="9">
         <v>3287</v>
       </c>
-      <c r="I13" s="28">
+      <c r="H13" s="9">
         <v>15688</v>
       </c>
-      <c r="J13" s="28">
-        <v>0</v>
-      </c>
-      <c r="K13" s="28">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
         <v>15688</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="2:13" ht="51.75" thickBot="1">
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="30">
+      <c r="G14" s="10">
         <v>148</v>
       </c>
-      <c r="I14" s="30">
+      <c r="H14" s="10">
         <v>708</v>
       </c>
-      <c r="J14" s="30">
-        <v>0</v>
-      </c>
-      <c r="K14" s="30">
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <v>708</v>
       </c>
-      <c r="L14" s="31">
+      <c r="K14" s="14">
         <v>302</v>
       </c>
-      <c r="M14" s="22">
+      <c r="L14" s="17">
         <v>10063681</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="23" t="s">
+    <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="30">
+      <c r="G15" s="10">
         <v>150</v>
       </c>
-      <c r="I15" s="30">
+      <c r="H15" s="10">
         <v>737</v>
       </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-      <c r="K15" s="30">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
         <v>737</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="2:13" ht="39" thickBot="1">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="23" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="30">
+      <c r="G16" s="10">
         <v>571</v>
       </c>
-      <c r="I16" s="30">
+      <c r="H16" s="10">
         <v>2952</v>
       </c>
-      <c r="J16" s="30">
-        <v>0</v>
-      </c>
-      <c r="K16" s="30">
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>2952</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="28" t="s">
+      <c r="K16" s="15"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="28">
+      <c r="G17" s="9">
         <v>869</v>
       </c>
-      <c r="I17" s="28">
+      <c r="H17" s="9">
         <v>4397</v>
       </c>
-      <c r="J17" s="28">
-        <v>0</v>
-      </c>
-      <c r="K17" s="28">
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
         <v>4397</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="27"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="21" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="F18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="23">
+      <c r="G18" s="8">
         <v>1010</v>
       </c>
-      <c r="I18" s="23">
+      <c r="H18" s="8">
         <v>4719</v>
       </c>
-      <c r="J18" s="23">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>4719</v>
       </c>
-      <c r="L18" s="22">
+      <c r="K18" s="17">
         <v>1024</v>
       </c>
-      <c r="M18" s="22">
+      <c r="L18" s="17">
         <v>40015823</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="23" t="s">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="23">
+      <c r="G19" s="8">
         <v>1725</v>
       </c>
-      <c r="I19" s="23">
+      <c r="H19" s="8">
         <v>6761</v>
       </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>6761</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="23" t="s">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="23">
+      <c r="G20" s="8">
         <v>530</v>
       </c>
-      <c r="I20" s="23">
+      <c r="H20" s="8">
         <v>2075</v>
       </c>
-      <c r="J20" s="23">
-        <v>0</v>
-      </c>
-      <c r="K20" s="23">
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
         <v>2075</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="28" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="28">
+      <c r="G21" s="9">
         <v>3265</v>
       </c>
-      <c r="I21" s="28">
+      <c r="H21" s="9">
         <v>13555</v>
       </c>
-      <c r="J21" s="28">
-        <v>0</v>
-      </c>
-      <c r="K21" s="28">
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
         <v>13555</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B22" s="24"/>
-      <c r="C22" s="21" t="s">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="F22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="23">
+      <c r="G22" s="8">
         <v>1460</v>
       </c>
-      <c r="I22" s="23">
+      <c r="H22" s="8">
         <v>6966</v>
       </c>
-      <c r="J22" s="23">
-        <v>0</v>
-      </c>
-      <c r="K22" s="23">
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
         <v>6966</v>
       </c>
-      <c r="L22" s="31">
+      <c r="K22" s="14">
         <v>1073</v>
       </c>
-      <c r="M22" s="22">
+      <c r="L22" s="17">
         <v>40878631</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23" t="s">
+    <row r="23" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="23">
+      <c r="G23" s="8">
         <v>1536</v>
       </c>
-      <c r="I23" s="23">
+      <c r="H23" s="8">
         <v>6843</v>
       </c>
-      <c r="J23" s="23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="23">
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
         <v>6843</v>
       </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="23">
+      <c r="G24" s="8">
         <v>1975</v>
       </c>
-      <c r="I24" s="23">
+      <c r="H24" s="8">
         <v>8873</v>
       </c>
-      <c r="J24" s="23">
-        <v>0</v>
-      </c>
-      <c r="K24" s="23">
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
         <v>8873</v>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1">
+      <c r="K24" s="15"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="28" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="28">
+      <c r="G25" s="9">
         <v>4971</v>
       </c>
-      <c r="I25" s="28">
+      <c r="H25" s="9">
         <v>22682</v>
       </c>
-      <c r="J25" s="28">
-        <v>0</v>
-      </c>
-      <c r="K25" s="28">
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
         <v>22682</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="27"/>
-    </row>
-    <row r="26" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="21" t="s">
+      <c r="K25" s="16"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="E26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="23">
+      <c r="G26" s="8">
         <v>1060</v>
       </c>
-      <c r="I26" s="23">
+      <c r="H26" s="8">
         <v>4258</v>
       </c>
-      <c r="J26" s="23">
-        <v>0</v>
-      </c>
-      <c r="K26" s="23">
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
         <v>4258</v>
       </c>
-      <c r="L26" s="31">
+      <c r="K26" s="14">
         <v>844</v>
       </c>
-      <c r="M26" s="22">
+      <c r="L26" s="17">
         <v>10048547</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="23" t="s">
+    <row r="27" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="23">
+      <c r="G27" s="8">
         <v>664</v>
       </c>
-      <c r="I27" s="23">
+      <c r="H27" s="8">
         <v>2448</v>
       </c>
-      <c r="J27" s="23">
-        <v>0</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
         <v>2448</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="23" t="s">
+      <c r="K27" s="15"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="23">
+      <c r="G28" s="8">
         <v>417</v>
       </c>
-      <c r="I28" s="23">
+      <c r="H28" s="8">
         <v>1488</v>
       </c>
-      <c r="J28" s="23">
-        <v>0</v>
-      </c>
-      <c r="K28" s="23">
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
         <v>1488</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="28" t="s">
+      <c r="K28" s="15"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="28">
+      <c r="G29" s="9">
         <v>2141</v>
       </c>
-      <c r="I29" s="28">
+      <c r="H29" s="9">
         <v>8194</v>
       </c>
-      <c r="J29" s="28">
-        <v>0</v>
-      </c>
-      <c r="K29" s="28">
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
         <v>8194</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B30" s="21" t="s">
+      <c r="K29" s="16"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="F30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="23">
+      <c r="G30" s="8">
         <v>842</v>
       </c>
-      <c r="I30" s="23">
+      <c r="H30" s="8">
         <v>3614</v>
       </c>
-      <c r="J30" s="23">
-        <v>0</v>
-      </c>
-      <c r="K30" s="23">
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
         <v>3614</v>
       </c>
-      <c r="L30" s="22">
+      <c r="K30" s="17">
         <v>577</v>
       </c>
-      <c r="M30" s="22">
+      <c r="L30" s="17">
         <v>10042895</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="23" t="s">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="23">
+      <c r="G31" s="8">
         <v>605</v>
       </c>
-      <c r="I31" s="23">
+      <c r="H31" s="8">
         <v>2568</v>
       </c>
-      <c r="J31" s="23">
-        <v>0</v>
-      </c>
-      <c r="K31" s="23">
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
         <v>2568</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-    </row>
-    <row r="32" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="23" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="23">
+      <c r="G32" s="8">
         <v>678</v>
       </c>
-      <c r="I32" s="23">
+      <c r="H32" s="8">
         <v>2813</v>
       </c>
-      <c r="J32" s="23">
-        <v>0</v>
-      </c>
-      <c r="K32" s="23">
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
         <v>2813</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="28">
+      <c r="G33" s="9">
         <v>2125</v>
       </c>
-      <c r="I33" s="28">
+      <c r="H33" s="9">
         <v>8995</v>
       </c>
-      <c r="J33" s="28">
-        <v>0</v>
-      </c>
-      <c r="K33" s="28">
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
         <v>8995</v>
       </c>
-      <c r="L33" s="36"/>
-      <c r="M33" s="27"/>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="21" t="s">
+      <c r="K33" s="26"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="E34" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="F34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="23">
+      <c r="G34" s="8">
         <v>762</v>
       </c>
-      <c r="I34" s="23">
+      <c r="H34" s="8">
         <v>3544</v>
       </c>
-      <c r="J34" s="23">
-        <v>0</v>
-      </c>
-      <c r="K34" s="23">
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
         <v>3544</v>
       </c>
-      <c r="L34" s="37">
+      <c r="K34" s="25">
         <v>355</v>
       </c>
-      <c r="M34" s="22">
+      <c r="L34" s="17">
         <v>10786629</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="23" t="s">
+    <row r="35" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="23">
+      <c r="G35" s="8">
         <v>1085</v>
       </c>
-      <c r="I35" s="23">
+      <c r="H35" s="8">
         <v>4977</v>
       </c>
-      <c r="J35" s="23">
-        <v>0</v>
-      </c>
-      <c r="K35" s="23">
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
         <v>4977</v>
       </c>
-      <c r="L35" s="33"/>
-      <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23" t="s">
+      <c r="K35" s="15"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="23">
+      <c r="G36" s="8">
         <v>415</v>
       </c>
-      <c r="I36" s="23">
+      <c r="H36" s="8">
         <v>1994</v>
       </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="23">
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
         <v>1994</v>
       </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="25"/>
-    </row>
-    <row r="37" spans="2:13" ht="15.75" thickBot="1">
+      <c r="K36" s="15"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="28" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="28">
+      <c r="G37" s="9">
         <v>2262</v>
       </c>
-      <c r="I37" s="28">
+      <c r="H37" s="9">
         <v>10515</v>
       </c>
-      <c r="J37" s="28">
-        <v>0</v>
-      </c>
-      <c r="K37" s="28">
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
         <v>10515</v>
       </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="21" t="s">
+      <c r="K37" s="16"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="E38" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="23">
+      <c r="G38" s="8">
         <v>1569</v>
       </c>
-      <c r="I38" s="23">
+      <c r="H38" s="8">
         <v>7419</v>
       </c>
-      <c r="J38" s="23">
-        <v>0</v>
-      </c>
-      <c r="K38" s="23">
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
         <v>7419</v>
       </c>
-      <c r="L38" s="31">
+      <c r="K38" s="14">
         <v>737</v>
       </c>
-      <c r="M38" s="22">
+      <c r="L38" s="17">
         <v>10092557</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="39" thickBot="1">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="38" t="s">
+    <row r="39" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="23">
+      <c r="G39" s="8">
         <v>1569</v>
       </c>
-      <c r="I39" s="23">
+      <c r="H39" s="8">
         <v>7343</v>
       </c>
-      <c r="J39" s="23">
-        <v>0</v>
-      </c>
-      <c r="K39" s="23">
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
         <v>7343</v>
       </c>
-      <c r="L39" s="33"/>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="2:13" ht="39" thickBot="1">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="38" t="s">
+      <c r="K39" s="15"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="23">
+      <c r="G40" s="8">
         <v>1443</v>
       </c>
-      <c r="I40" s="23">
+      <c r="H40" s="8">
         <v>6718</v>
       </c>
-      <c r="J40" s="23">
-        <v>0</v>
-      </c>
-      <c r="K40" s="23">
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
         <v>6718</v>
       </c>
-      <c r="L40" s="33"/>
-      <c r="M40" s="25"/>
-    </row>
-    <row r="41" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40" t="s">
+      <c r="K40" s="15"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="28">
+      <c r="G41" s="9">
         <v>4581</v>
       </c>
-      <c r="I41" s="28">
+      <c r="H41" s="9">
         <v>21480</v>
       </c>
-      <c r="J41" s="28">
-        <v>0</v>
-      </c>
-      <c r="K41" s="28">
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
         <v>21480</v>
       </c>
-      <c r="L41" s="35"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B42" s="21" t="s">
+      <c r="K41" s="16"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="C42" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="E42" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="F42" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="23">
+      <c r="G42" s="8">
         <v>1094</v>
       </c>
-      <c r="I42" s="23">
+      <c r="H42" s="8">
         <v>4936</v>
       </c>
-      <c r="J42" s="23">
-        <v>0</v>
-      </c>
-      <c r="K42" s="23">
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
         <v>4936</v>
       </c>
-      <c r="L42" s="22">
+      <c r="K42" s="17">
         <v>715</v>
       </c>
-      <c r="M42" s="22">
+      <c r="L42" s="17">
         <v>10797673</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="23" t="s">
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="23">
+      <c r="G43" s="8">
         <v>732</v>
       </c>
-      <c r="I43" s="23">
+      <c r="H43" s="8">
         <v>3114</v>
       </c>
-      <c r="J43" s="23">
-        <v>0</v>
-      </c>
-      <c r="K43" s="23">
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
         <v>3114</v>
       </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-    </row>
-    <row r="44" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="23" t="s">
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="23">
+      <c r="G44" s="8">
         <v>624</v>
       </c>
-      <c r="I44" s="23">
+      <c r="H44" s="8">
         <v>2837</v>
       </c>
-      <c r="J44" s="23">
-        <v>0</v>
-      </c>
-      <c r="K44" s="23">
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
         <v>2837</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-    </row>
-    <row r="45" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B45" s="24"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="28" t="s">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="28">
+      <c r="G45" s="9">
         <v>2450</v>
       </c>
-      <c r="I45" s="28">
+      <c r="H45" s="9">
         <v>10887</v>
       </c>
-      <c r="J45" s="28">
-        <v>0</v>
-      </c>
-      <c r="K45" s="28">
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
         <v>10887</v>
       </c>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B46" s="24"/>
-      <c r="C46" s="41" t="s">
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="C46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="D46" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="E46" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="F46" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H46" s="23">
+      <c r="G46" s="8">
         <v>182</v>
       </c>
-      <c r="I46" s="23">
+      <c r="H46" s="8">
         <v>739</v>
       </c>
-      <c r="J46" s="23">
-        <v>0</v>
-      </c>
-      <c r="K46" s="23">
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
         <v>739</v>
       </c>
-      <c r="L46" s="31">
+      <c r="K46" s="14">
         <v>859</v>
       </c>
-      <c r="M46" s="22">
+      <c r="L46" s="17">
         <v>10060213</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="23" t="s">
+    <row r="47" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="23">
+      <c r="G47" s="8">
         <v>1902</v>
       </c>
-      <c r="I47" s="23">
+      <c r="H47" s="8">
         <v>9196</v>
       </c>
-      <c r="J47" s="23">
-        <v>0</v>
-      </c>
-      <c r="K47" s="23">
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
         <v>9196</v>
       </c>
-      <c r="L47" s="33"/>
-      <c r="M47" s="25"/>
-    </row>
-    <row r="48" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="23" t="s">
+      <c r="K47" s="15"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="23">
+      <c r="G48" s="8">
         <v>265</v>
       </c>
-      <c r="I48" s="23">
+      <c r="H48" s="8">
         <v>1261</v>
       </c>
-      <c r="J48" s="23">
-        <v>0</v>
-      </c>
-      <c r="K48" s="23">
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
         <v>1261</v>
       </c>
-      <c r="L48" s="33"/>
-      <c r="M48" s="25"/>
-    </row>
-    <row r="49" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B49" s="24"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="28" t="s">
+      <c r="K48" s="15"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="28">
+      <c r="G49" s="9">
         <v>2349</v>
       </c>
-      <c r="I49" s="28">
+      <c r="H49" s="9">
         <v>11196</v>
       </c>
-      <c r="J49" s="28">
-        <v>0</v>
-      </c>
-      <c r="K49" s="28">
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
         <v>11196</v>
       </c>
-      <c r="L49" s="35"/>
-      <c r="M49" s="27"/>
-    </row>
-    <row r="50" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B50" s="24"/>
-      <c r="C50" s="41" t="s">
+      <c r="K49" s="16"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="D50" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="E50" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="F50" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="23">
+      <c r="G50" s="8">
         <v>381</v>
       </c>
-      <c r="I50" s="23">
+      <c r="H50" s="8">
         <v>1766</v>
       </c>
-      <c r="J50" s="23">
-        <v>0</v>
-      </c>
-      <c r="K50" s="23">
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
         <v>1766</v>
       </c>
-      <c r="L50" s="31">
+      <c r="K50" s="14">
         <v>1093</v>
       </c>
-      <c r="M50" s="22">
+      <c r="L50" s="17">
         <v>10063231</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="39" thickBot="1">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="23" t="s">
+    <row r="51" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="23">
+      <c r="G51" s="8">
         <v>308</v>
       </c>
-      <c r="I51" s="23">
+      <c r="H51" s="8">
         <v>1444</v>
       </c>
-      <c r="J51" s="23">
-        <v>0</v>
-      </c>
-      <c r="K51" s="23">
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <v>1444</v>
       </c>
-      <c r="L51" s="33"/>
-      <c r="M51" s="25"/>
-    </row>
-    <row r="52" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="23" t="s">
+      <c r="K51" s="15"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H52" s="23">
+      <c r="G52" s="8">
         <v>522</v>
       </c>
-      <c r="I52" s="23">
+      <c r="H52" s="8">
         <v>2357</v>
       </c>
-      <c r="J52" s="23">
-        <v>0</v>
-      </c>
-      <c r="K52" s="23">
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
         <v>2357</v>
       </c>
-      <c r="L52" s="33"/>
-      <c r="M52" s="25"/>
-    </row>
-    <row r="53" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B53" s="26"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="28" t="s">
+      <c r="K52" s="15"/>
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="28">
+      <c r="G53" s="9">
         <v>1211</v>
       </c>
-      <c r="I53" s="28">
+      <c r="H53" s="9">
         <v>5567</v>
       </c>
-      <c r="J53" s="28">
-        <v>0</v>
-      </c>
-      <c r="K53" s="28">
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
         <v>5567</v>
       </c>
-      <c r="L53" s="35"/>
-      <c r="M53" s="27"/>
-    </row>
-    <row r="54" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B54" s="21" t="s">
+      <c r="K53" s="16"/>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="B54" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="C54" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="D54" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="E54" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="F54" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H54" s="23">
+      <c r="G54" s="8">
         <v>567</v>
       </c>
-      <c r="I54" s="23">
+      <c r="H54" s="8">
         <v>2722</v>
       </c>
-      <c r="J54" s="23">
-        <v>0</v>
-      </c>
-      <c r="K54" s="23">
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
         <v>2722</v>
       </c>
-      <c r="L54" s="22">
+      <c r="K54" s="17">
         <v>807</v>
       </c>
-      <c r="M54" s="22">
+      <c r="L54" s="17">
         <v>10794763</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="23" t="s">
+    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H55" s="23">
+      <c r="G55" s="8">
         <v>154</v>
       </c>
-      <c r="I55" s="23">
+      <c r="H55" s="8">
         <v>706</v>
       </c>
-      <c r="J55" s="23">
-        <v>0</v>
-      </c>
-      <c r="K55" s="23">
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
         <v>706</v>
       </c>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-    </row>
-    <row r="56" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="23" t="s">
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H56" s="23">
+      <c r="G56" s="8">
         <v>452</v>
       </c>
-      <c r="I56" s="23">
+      <c r="H56" s="8">
         <v>1816</v>
       </c>
-      <c r="J56" s="23">
-        <v>0</v>
-      </c>
-      <c r="K56" s="23">
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
         <v>1816</v>
       </c>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-    </row>
-    <row r="57" spans="2:13" ht="15.75" thickBot="1">
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+    </row>
+    <row r="57" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
       <c r="B57" s="24"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="28" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="28">
+      <c r="G57" s="9">
         <v>1173</v>
       </c>
-      <c r="I57" s="28">
+      <c r="H57" s="9">
         <v>5244</v>
       </c>
-      <c r="J57" s="28">
-        <v>0</v>
-      </c>
-      <c r="K57" s="28">
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
         <v>5244</v>
       </c>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B58" s="24"/>
-      <c r="C58" s="21" t="s">
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+    </row>
+    <row r="58" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="C58" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="D58" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="E58" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="F58" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="23">
+      <c r="G58" s="8">
         <v>388</v>
       </c>
-      <c r="I58" s="23">
+      <c r="H58" s="8">
         <v>1663</v>
       </c>
-      <c r="J58" s="23">
-        <v>0</v>
-      </c>
-      <c r="K58" s="23">
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8">
         <v>1663</v>
       </c>
-      <c r="L58" s="31">
+      <c r="K58" s="14">
         <v>648</v>
       </c>
-      <c r="M58" s="22">
+      <c r="L58" s="17">
         <v>10785588</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="23" t="s">
+    <row r="59" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H59" s="23">
+      <c r="G59" s="8">
         <v>208</v>
       </c>
-      <c r="I59" s="23">
+      <c r="H59" s="8">
         <v>947</v>
       </c>
-      <c r="J59" s="23">
-        <v>0</v>
-      </c>
-      <c r="K59" s="23">
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
         <v>947</v>
       </c>
-      <c r="L59" s="33"/>
-      <c r="M59" s="25"/>
-    </row>
-    <row r="60" spans="2:13" ht="39" thickBot="1">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="23" t="s">
+      <c r="K59" s="15"/>
+      <c r="L59" s="18"/>
+    </row>
+    <row r="60" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H60" s="23">
+      <c r="G60" s="8">
         <v>607</v>
       </c>
-      <c r="I60" s="23">
+      <c r="H60" s="8">
         <v>2675</v>
       </c>
-      <c r="J60" s="23">
-        <v>0</v>
-      </c>
-      <c r="K60" s="23">
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8">
         <v>2675</v>
       </c>
-      <c r="L60" s="33"/>
-      <c r="M60" s="25"/>
-    </row>
-    <row r="61" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B61" s="24"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="28" t="s">
+      <c r="K60" s="15"/>
+      <c r="L60" s="18"/>
+    </row>
+    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="28">
+      <c r="G61" s="9">
         <v>1203</v>
       </c>
-      <c r="I61" s="28">
+      <c r="H61" s="9">
         <v>5285</v>
       </c>
-      <c r="J61" s="28">
-        <v>0</v>
-      </c>
-      <c r="K61" s="28">
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
         <v>5285</v>
       </c>
-      <c r="L61" s="35"/>
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B62" s="24"/>
-      <c r="C62" s="41" t="s">
+      <c r="K61" s="16"/>
+      <c r="L61" s="19"/>
+    </row>
+    <row r="62" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="C62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="D62" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="41" t="s">
+      <c r="E62" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="F62" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H62" s="23">
+      <c r="G62" s="8">
         <v>1781</v>
       </c>
-      <c r="I62" s="23">
+      <c r="H62" s="8">
         <v>8803</v>
       </c>
-      <c r="J62" s="23">
-        <v>0</v>
-      </c>
-      <c r="K62" s="23">
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
         <v>8803</v>
       </c>
-      <c r="L62" s="31">
+      <c r="K62" s="14">
         <v>1064</v>
       </c>
-      <c r="M62" s="22">
+      <c r="L62" s="17">
         <v>10092519</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="23" t="s">
+    <row r="63" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H63" s="23">
+      <c r="G63" s="8">
         <v>1981</v>
       </c>
-      <c r="I63" s="23">
+      <c r="H63" s="8">
         <v>9433</v>
       </c>
-      <c r="J63" s="23">
-        <v>0</v>
-      </c>
-      <c r="K63" s="23">
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8">
         <v>9433</v>
       </c>
-      <c r="L63" s="33"/>
-      <c r="M63" s="25"/>
-    </row>
-    <row r="64" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="23" t="s">
+      <c r="K63" s="15"/>
+      <c r="L63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="23">
+      <c r="G64" s="8">
         <v>1465</v>
       </c>
-      <c r="I64" s="23">
+      <c r="H64" s="8">
         <v>6911</v>
       </c>
-      <c r="J64" s="23">
-        <v>0</v>
-      </c>
-      <c r="K64" s="23">
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8">
         <v>6911</v>
       </c>
-      <c r="L64" s="33"/>
-      <c r="M64" s="25"/>
-    </row>
-    <row r="65" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B65" s="26"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="28" t="s">
+      <c r="K64" s="15"/>
+      <c r="L64" s="18"/>
+    </row>
+    <row r="65" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H65" s="28">
+      <c r="G65" s="9">
         <v>5227</v>
       </c>
-      <c r="I65" s="28">
+      <c r="H65" s="9">
         <v>25147</v>
       </c>
-      <c r="J65" s="28">
-        <v>0</v>
-      </c>
-      <c r="K65" s="28">
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="9">
         <v>25147</v>
       </c>
-      <c r="L65" s="35"/>
-      <c r="M65" s="27"/>
-    </row>
-    <row r="66" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B66" s="21" t="s">
+      <c r="K65" s="16"/>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="B66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="C66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="D66" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="41" t="s">
+      <c r="E66" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="F66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H66" s="23">
+      <c r="G66" s="8">
         <v>589</v>
       </c>
-      <c r="I66" s="23">
+      <c r="H66" s="8">
         <v>2246</v>
       </c>
-      <c r="J66" s="23">
-        <v>0</v>
-      </c>
-      <c r="K66" s="23">
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8">
         <v>2246</v>
       </c>
-      <c r="L66" s="22">
+      <c r="K66" s="17">
         <v>934</v>
       </c>
-      <c r="M66" s="22">
+      <c r="L66" s="17">
         <v>40874723</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="23" t="s">
+    <row r="67" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H67" s="23">
+      <c r="G67" s="8">
         <v>508</v>
       </c>
-      <c r="I67" s="23">
+      <c r="H67" s="8">
         <v>1866</v>
       </c>
-      <c r="J67" s="23">
-        <v>0</v>
-      </c>
-      <c r="K67" s="23">
+      <c r="I67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8">
         <v>1866</v>
       </c>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-    </row>
-    <row r="68" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="23" t="s">
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+    </row>
+    <row r="68" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H68" s="23">
+      <c r="G68" s="8">
         <v>521</v>
       </c>
-      <c r="I68" s="23">
+      <c r="H68" s="8">
         <v>2150</v>
       </c>
-      <c r="J68" s="23">
-        <v>0</v>
-      </c>
-      <c r="K68" s="23">
+      <c r="I68" s="8">
+        <v>0</v>
+      </c>
+      <c r="J68" s="8">
         <v>2150</v>
       </c>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-    </row>
-    <row r="69" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B69" s="24"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="28" t="s">
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+    </row>
+    <row r="69" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="28">
+      <c r="G69" s="9">
         <v>1618</v>
       </c>
-      <c r="I69" s="28">
+      <c r="H69" s="9">
         <v>6262</v>
       </c>
-      <c r="J69" s="28">
-        <v>0</v>
-      </c>
-      <c r="K69" s="28">
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9">
         <v>6262</v>
       </c>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-    </row>
-    <row r="70" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B70" s="24"/>
-      <c r="C70" s="41" t="s">
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+    </row>
+    <row r="70" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="C70" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="D70" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="41" t="s">
+      <c r="E70" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="F70" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H70" s="23">
+      <c r="G70" s="8">
         <v>589</v>
       </c>
-      <c r="I70" s="23">
+      <c r="H70" s="8">
         <v>2481</v>
       </c>
-      <c r="J70" s="23">
-        <v>0</v>
-      </c>
-      <c r="K70" s="23">
+      <c r="I70" s="8">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8">
         <v>2481</v>
       </c>
-      <c r="L70" s="31">
+      <c r="K70" s="14">
         <v>1020</v>
       </c>
-      <c r="M70" s="22">
+      <c r="L70" s="17">
         <v>40017341</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="23" t="s">
+    <row r="71" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H71" s="23">
+      <c r="G71" s="8">
         <v>413</v>
       </c>
-      <c r="I71" s="23">
+      <c r="H71" s="8">
         <v>1836</v>
       </c>
-      <c r="J71" s="23">
-        <v>0</v>
-      </c>
-      <c r="K71" s="23">
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
         <v>1836</v>
       </c>
-      <c r="L71" s="33"/>
-      <c r="M71" s="25"/>
-    </row>
-    <row r="72" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="23" t="s">
+      <c r="K71" s="15"/>
+      <c r="L71" s="18"/>
+    </row>
+    <row r="72" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H72" s="23">
+      <c r="G72" s="8">
         <v>212</v>
       </c>
-      <c r="I72" s="23">
+      <c r="H72" s="8">
         <v>892</v>
       </c>
-      <c r="J72" s="23">
-        <v>0</v>
-      </c>
-      <c r="K72" s="23">
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8">
         <v>892</v>
       </c>
-      <c r="L72" s="33"/>
-      <c r="M72" s="25"/>
-    </row>
-    <row r="73" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B73" s="24"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="28" t="s">
+      <c r="K72" s="15"/>
+      <c r="L72" s="18"/>
+    </row>
+    <row r="73" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="28">
+      <c r="G73" s="9">
         <v>1214</v>
       </c>
-      <c r="I73" s="28">
+      <c r="H73" s="9">
         <v>5209</v>
       </c>
-      <c r="J73" s="28">
-        <v>0</v>
-      </c>
-      <c r="K73" s="28">
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
         <v>5209</v>
       </c>
-      <c r="L73" s="35"/>
-      <c r="M73" s="27"/>
-    </row>
-    <row r="74" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B74" s="24"/>
-      <c r="C74" s="41" t="s">
+      <c r="K73" s="16"/>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="C74" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="D74" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="41" t="s">
+      <c r="E74" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="F74" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H74" s="23">
+      <c r="G74" s="8">
         <v>660</v>
       </c>
-      <c r="I74" s="23">
+      <c r="H74" s="8">
         <v>2591</v>
       </c>
-      <c r="J74" s="23">
-        <v>0</v>
-      </c>
-      <c r="K74" s="23">
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
         <v>2591</v>
       </c>
-      <c r="L74" s="31">
+      <c r="K74" s="14">
         <v>918</v>
       </c>
-      <c r="M74" s="22">
+      <c r="L74" s="17">
         <v>40016053</v>
       </c>
     </row>
-    <row r="75" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="23" t="s">
+    <row r="75" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H75" s="23">
+      <c r="G75" s="8">
         <v>1207</v>
       </c>
-      <c r="I75" s="23">
+      <c r="H75" s="8">
         <v>4330</v>
       </c>
-      <c r="J75" s="23">
-        <v>0</v>
-      </c>
-      <c r="K75" s="23">
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
         <v>4330</v>
       </c>
-      <c r="L75" s="33"/>
-      <c r="M75" s="25"/>
-    </row>
-    <row r="76" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="23" t="s">
+      <c r="K75" s="15"/>
+      <c r="L75" s="18"/>
+    </row>
+    <row r="76" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H76" s="23">
+      <c r="G76" s="8">
         <v>1525</v>
       </c>
-      <c r="I76" s="23">
+      <c r="H76" s="8">
         <v>5503</v>
       </c>
-      <c r="J76" s="23">
-        <v>0</v>
-      </c>
-      <c r="K76" s="23">
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
         <v>5503</v>
       </c>
-      <c r="L76" s="33"/>
-      <c r="M76" s="25"/>
-    </row>
-    <row r="77" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B77" s="26"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="28" t="s">
+      <c r="K76" s="15"/>
+      <c r="L76" s="18"/>
+    </row>
+    <row r="77" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="28">
+      <c r="G77" s="9">
         <v>3392</v>
       </c>
-      <c r="I77" s="28">
+      <c r="H77" s="9">
         <v>12424</v>
       </c>
-      <c r="J77" s="28">
-        <v>0</v>
-      </c>
-      <c r="K77" s="28">
+      <c r="I77" s="9">
+        <v>0</v>
+      </c>
+      <c r="J77" s="9">
         <v>12424</v>
       </c>
-      <c r="L77" s="35"/>
-      <c r="M77" s="27"/>
-    </row>
-    <row r="78" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B78" s="21" t="s">
+      <c r="K77" s="16"/>
+      <c r="L77" s="19"/>
+    </row>
+    <row r="78" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="B78" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="C78" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="D78" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="41" t="s">
+      <c r="E78" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="F78" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H78" s="23">
+      <c r="G78" s="8">
         <v>389</v>
       </c>
-      <c r="I78" s="23">
+      <c r="H78" s="8">
         <v>1719</v>
       </c>
-      <c r="J78" s="23">
-        <v>0</v>
-      </c>
-      <c r="K78" s="23">
+      <c r="I78" s="8">
+        <v>0</v>
+      </c>
+      <c r="J78" s="8">
         <v>1719</v>
       </c>
-      <c r="L78" s="22">
+      <c r="K78" s="17">
         <v>1087</v>
       </c>
-      <c r="M78" s="22">
+      <c r="L78" s="17">
         <v>40473067</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="39" thickBot="1">
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="23" t="s">
+    <row r="79" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="23">
+      <c r="G79" s="8">
         <v>231</v>
       </c>
-      <c r="I79" s="23">
+      <c r="H79" s="8">
         <v>1018</v>
       </c>
-      <c r="J79" s="23">
-        <v>0</v>
-      </c>
-      <c r="K79" s="23">
+      <c r="I79" s="8">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8">
         <v>1018</v>
       </c>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-    </row>
-    <row r="80" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="23" t="s">
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+    </row>
+    <row r="80" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H80" s="23">
+      <c r="G80" s="8">
         <v>949</v>
       </c>
-      <c r="I80" s="23">
+      <c r="H80" s="8">
         <v>4432</v>
       </c>
-      <c r="J80" s="23">
-        <v>0</v>
-      </c>
-      <c r="K80" s="23">
+      <c r="I80" s="8">
+        <v>0</v>
+      </c>
+      <c r="J80" s="8">
         <v>4432</v>
       </c>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-    </row>
-    <row r="81" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B81" s="24"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="28" t="s">
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+    </row>
+    <row r="81" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="28">
+      <c r="G81" s="9">
         <v>1569</v>
       </c>
-      <c r="I81" s="28">
+      <c r="H81" s="9">
         <v>7169</v>
       </c>
-      <c r="J81" s="28">
-        <v>0</v>
-      </c>
-      <c r="K81" s="28">
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
         <v>7169</v>
       </c>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-    </row>
-    <row r="82" spans="2:13" ht="39" thickBot="1">
-      <c r="B82" s="24"/>
-      <c r="C82" s="41" t="s">
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+    </row>
+    <row r="82" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="C82" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="D82" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F82" s="41" t="s">
+      <c r="E82" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G82" s="23" t="s">
+      <c r="F82" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H82" s="23">
+      <c r="G82" s="8">
         <v>539</v>
       </c>
-      <c r="I82" s="23">
+      <c r="H82" s="8">
         <v>2451</v>
       </c>
-      <c r="J82" s="23">
-        <v>0</v>
-      </c>
-      <c r="K82" s="23">
+      <c r="I82" s="8">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8">
         <v>2451</v>
       </c>
-      <c r="L82" s="31">
+      <c r="K82" s="14">
         <v>1080</v>
       </c>
-      <c r="M82" s="22">
+      <c r="L82" s="17">
         <v>40013452</v>
       </c>
     </row>
-    <row r="83" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="23" t="s">
+    <row r="83" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H83" s="23">
+      <c r="G83" s="8">
         <v>190</v>
       </c>
-      <c r="I83" s="23">
+      <c r="H83" s="8">
         <v>826</v>
       </c>
-      <c r="J83" s="23">
-        <v>0</v>
-      </c>
-      <c r="K83" s="23">
+      <c r="I83" s="8">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8">
         <v>826</v>
       </c>
-      <c r="L83" s="33"/>
-      <c r="M83" s="25"/>
-    </row>
-    <row r="84" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="23" t="s">
+      <c r="K83" s="15"/>
+      <c r="L83" s="18"/>
+    </row>
+    <row r="84" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H84" s="23">
+      <c r="G84" s="8">
         <v>388</v>
       </c>
-      <c r="I84" s="23">
+      <c r="H84" s="8">
         <v>1756</v>
       </c>
-      <c r="J84" s="23">
-        <v>0</v>
-      </c>
-      <c r="K84" s="23">
+      <c r="I84" s="8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="8">
         <v>1756</v>
       </c>
-      <c r="L84" s="33"/>
-      <c r="M84" s="25"/>
-    </row>
-    <row r="85" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B85" s="24"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="28" t="s">
+      <c r="K84" s="15"/>
+      <c r="L84" s="18"/>
+    </row>
+    <row r="85" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="28">
+      <c r="G85" s="9">
         <v>1117</v>
       </c>
-      <c r="I85" s="28">
+      <c r="H85" s="9">
         <v>5033</v>
       </c>
-      <c r="J85" s="28">
-        <v>0</v>
-      </c>
-      <c r="K85" s="28">
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
         <v>5033</v>
       </c>
-      <c r="L85" s="35"/>
-      <c r="M85" s="27"/>
-    </row>
-    <row r="86" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B86" s="24"/>
-      <c r="C86" s="41" t="s">
+      <c r="K85" s="16"/>
+      <c r="L85" s="19"/>
+    </row>
+    <row r="86" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="C86" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="D86" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F86" s="41" t="s">
+      <c r="E86" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G86" s="42" t="s">
+      <c r="F86" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H86" s="23">
+      <c r="G86" s="8">
         <v>343</v>
       </c>
-      <c r="I86" s="23">
+      <c r="H86" s="8">
         <v>1468</v>
       </c>
-      <c r="J86" s="23">
-        <v>0</v>
-      </c>
-      <c r="K86" s="23">
+      <c r="I86" s="8">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
         <v>1468</v>
       </c>
-      <c r="L86" s="31">
+      <c r="K86" s="14">
         <v>1039</v>
       </c>
-      <c r="M86" s="22">
+      <c r="L86" s="17">
         <v>40010851</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="23" t="s">
+    <row r="87" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H87" s="23">
+      <c r="G87" s="8">
         <v>235</v>
       </c>
-      <c r="I87" s="23">
+      <c r="H87" s="8">
         <v>911</v>
       </c>
-      <c r="J87" s="23">
-        <v>0</v>
-      </c>
-      <c r="K87" s="23">
+      <c r="I87" s="8">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8">
         <v>911</v>
       </c>
-      <c r="L87" s="33"/>
-      <c r="M87" s="25"/>
-    </row>
-    <row r="88" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="23" t="s">
+      <c r="K87" s="15"/>
+      <c r="L87" s="18"/>
+    </row>
+    <row r="88" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H88" s="23">
+      <c r="G88" s="8">
         <v>354</v>
       </c>
-      <c r="I88" s="23">
+      <c r="H88" s="8">
         <v>1473</v>
       </c>
-      <c r="J88" s="23">
-        <v>0</v>
-      </c>
-      <c r="K88" s="23">
+      <c r="I88" s="8">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8">
         <v>1473</v>
       </c>
-      <c r="L88" s="33"/>
-      <c r="M88" s="25"/>
-    </row>
-    <row r="89" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B89" s="26"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="28" t="s">
+      <c r="K88" s="15"/>
+      <c r="L88" s="18"/>
+    </row>
+    <row r="89" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H89" s="28">
+      <c r="G89" s="9">
         <v>932</v>
       </c>
-      <c r="I89" s="28">
+      <c r="H89" s="9">
         <v>3852</v>
       </c>
-      <c r="J89" s="28">
-        <v>0</v>
-      </c>
-      <c r="K89" s="28">
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="9">
         <v>3852</v>
       </c>
-      <c r="L89" s="35"/>
-      <c r="M89" s="27"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="L86:L89"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="L82:L85"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="B78:B89"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="L70:L73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B66:B77"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="L62:L65"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="L54:L57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="B42:B53"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="A42:A53"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="L54:L57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="L62:L65"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="L70:L73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="K82:K85"/>
+    <mergeCell ref="L82:L85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3651,24 +3701,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
